--- a/Etapa 2/Checklist Gerência de Requisitos.xlsx
+++ b/Etapa 2/Checklist Gerência de Requisitos.xlsx
@@ -8,23 +8,25 @@
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="8" r:id="rId1"/>
-    <sheet name="CCR" sheetId="1" r:id="rId2"/>
-    <sheet name="DAR" sheetId="2" r:id="rId3"/>
-    <sheet name="DCE" sheetId="3" r:id="rId4"/>
-    <sheet name="ECU" sheetId="4" r:id="rId5"/>
-    <sheet name="ER" sheetId="5" r:id="rId6"/>
-    <sheet name="MRR" sheetId="6" r:id="rId7"/>
-    <sheet name="RIM" sheetId="7" r:id="rId8"/>
+    <sheet name="Processo" sheetId="9" r:id="rId2"/>
+    <sheet name="CCR" sheetId="1" r:id="rId3"/>
+    <sheet name="DAR" sheetId="2" r:id="rId4"/>
+    <sheet name="DCE" sheetId="3" r:id="rId5"/>
+    <sheet name="ECU" sheetId="4" r:id="rId6"/>
+    <sheet name="ER" sheetId="5" r:id="rId7"/>
+    <sheet name="MRR" sheetId="6" r:id="rId8"/>
+    <sheet name="RIM" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">CCR!$A$1:$D$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">CCR!$A$1:$D$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Indice!$A$1:$D$19</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <r>
       <t>Checklist:</t>
@@ -42,9 +44,6 @@
     </r>
   </si>
   <si>
-    <t>Item avaliado</t>
-  </si>
-  <si>
     <t>Não conformidade</t>
   </si>
   <si>
@@ -54,14 +53,255 @@
     <t>Numero</t>
   </si>
   <si>
-    <t>Checklist Gerência de Requisitos</t>
+    <r>
+      <t>Checklist:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Documento de Aprovação dos Requisitos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Checklist:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Documento de Compromentimento da Equipe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Checklist:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Especificação de Caso de Uso</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Checklist:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Especificação de Requisitos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Checklist:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Matriz de Rastreabilidade de Requisito</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Checklist:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Relatório de Impacto de Mudanças</t>
+    </r>
+  </si>
+  <si>
+    <t>Item de Checklist</t>
+  </si>
+  <si>
+    <t>Há um documento de Aprovação de Requisitos?</t>
+  </si>
+  <si>
+    <t>Há um anexo do documento a ser aprovado?</t>
+  </si>
+  <si>
+    <t>Tem a assinatura do cliente?</t>
+  </si>
+  <si>
+    <t>Tem a assinatura do gerente do projeto?</t>
+  </si>
+  <si>
+    <t>Tem a assinatura do gerente de requisito?</t>
+  </si>
+  <si>
+    <t>Tem data e local da assinatura?</t>
+  </si>
+  <si>
+    <t>Há um documento de comprometimento da equipe técnica?</t>
+  </si>
+  <si>
+    <t>Se hover o documento de comprometimento, há anexos dos documentos dos requisitos levantados?</t>
+  </si>
+  <si>
+    <t>Todos os membros da equipe técnica do projeto assinaram o documento de compromentimento?</t>
+  </si>
+  <si>
+    <t>Há registro de local e data no documento de Comprometimento da Equipe?</t>
+  </si>
+  <si>
+    <t>Há um documento de Especificação de Requisitos?</t>
+  </si>
+  <si>
+    <t>No documento, há o número identificador do requisito?</t>
+  </si>
+  <si>
+    <t>Há uma breve justificativa do requisito?</t>
+  </si>
+  <si>
+    <t>Há um campo para inserir descrição adicional do requisito?</t>
+  </si>
+  <si>
+    <t>Há uma Matriz de Rastreabilidade de Requisitos?</t>
+  </si>
+  <si>
+    <t>Na matriz de rastreabilidade horizontal, há um identificador do requisito?</t>
+  </si>
+  <si>
+    <t>Na matriz de rastreabilidade horizontal, há um idenditifador do requisito que esse requisito depende?</t>
+  </si>
+  <si>
+    <t>Na matriz de rastreabilidade vertical, há um identificador do requisito?</t>
+  </si>
+  <si>
+    <t>Na matriz de rastreabilidade vertical, há o identificador do caso de uso correspondente ao requisito?</t>
+  </si>
+  <si>
+    <t>Na matriz de rastreabilidade vertical, há o identificador do modulo de código correspondente ao requisito?</t>
+  </si>
+  <si>
+    <t>Na matriz de rastreabilidade vertical, há o identificador do caso de teste correspondente ao requisito?</t>
+  </si>
+  <si>
+    <t>A atividade de planejamento do projeto foi executada?</t>
+  </si>
+  <si>
+    <t>A atividade de planejamaento do projeto gerou um "Cronograma do Projeto"?</t>
+  </si>
+  <si>
+    <t>A atividade de planejamento de projeto gerou um "Documento de Riscos do Projeto"?</t>
+  </si>
+  <si>
+    <t>A atividade de planejamento do projeto gerou um "Plano Geral do Projeto"?</t>
+  </si>
+  <si>
+    <r>
+      <t>Checklist:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Gerência de Requisitos</t>
+    </r>
+  </si>
+  <si>
+    <t>Há um relatório de impácto de mudanças?</t>
+  </si>
+  <si>
+    <t>Os requisitos alterados, adicionados e excluídos são identificados?</t>
+  </si>
+  <si>
+    <t>O relatório resgistra o estatus dos requisitos alterados?</t>
+  </si>
+  <si>
+    <t>Os requisitos impactados são identificados?</t>
+  </si>
+  <si>
+    <t>No caso de novos requisitos há especificação desses requisitos?</t>
+  </si>
+  <si>
+    <t>No caso de requisitos alterados há especificação das alterações realizadas?</t>
+  </si>
+  <si>
+    <t>Controle de Qualidade</t>
+  </si>
+  <si>
+    <t>Processo a ser avaliado:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist para Controle de Qualidade do processo: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist para Controle de Qualidade dos produtos: </t>
+  </si>
+  <si>
+    <t>Gerência de Requisitos</t>
+  </si>
+  <si>
+    <t>Checklist Consistência de Requisitos</t>
+  </si>
+  <si>
+    <t>Documento de Aprovação dos Requisitos</t>
+  </si>
+  <si>
+    <t>Documento de Compromentimento da Equipe</t>
+  </si>
+  <si>
+    <t>Especificação de Caso de Uso</t>
+  </si>
+  <si>
+    <t>Especificação de Requisitos</t>
+  </si>
+  <si>
+    <t>Matriz de Rastreabilidade de Requisitos</t>
+  </si>
+  <si>
+    <t>Relatório de Impacto de Mudanças</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,16 +325,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -102,18 +362,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -416,33 +750,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B3"/>
+  <dimension ref="B1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="3"/>
+    <row r="1" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="5" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+      <c r="C9" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C6" location="Processo!A1" display="Gerência de Requisitos"/>
+    <hyperlink ref="C8" location="CCR!A1" display="Checklist Consistência de Requisitos"/>
+    <hyperlink ref="C9" location="DAR!A1" display="Documento de Aprovação dos Requisitos"/>
+    <hyperlink ref="C10" location="DCE!A1" display="Documento de Compromentimento da Equipe"/>
+    <hyperlink ref="C11" location="ECU!A1" display="Especificação de Caso de Uso"/>
+    <hyperlink ref="C12" location="ER!A1" display="Especificação de Requisitos"/>
+    <hyperlink ref="C14" location="RIM!A1" display="Relatório de Impacto de Mudanças"/>
+    <hyperlink ref="C13" location="MRR!A1" display="Matriz de Rastreabilidade de Requisitos"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="85.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" ref="A5:A6" si="0">A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,25 +951,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -769,74 +1268,550 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="48.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" ref="A5:A8" si="0">A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <cols>
+    <col min="2" max="2" width="100.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" ref="A5:A6" si="0">A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="100.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" ref="A5:A6" si="0">A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" ref="A5:A6" si="0">A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="106" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" ref="A5:A9" si="0">A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="76" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" ref="A5:A8" si="0">A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Etapa 2/Checklist Gerência de Requisitos.xlsx
+++ b/Etapa 2/Checklist Gerência de Requisitos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="8" r:id="rId1"/>
@@ -18,15 +18,16 @@
     <sheet name="RIM" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">CCR!$A$1:$D$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">CCR!$A$1:$D$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Indice!$A$1:$D$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Processo!$A$1:$D$70</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="123">
   <si>
     <r>
       <t>Checklist:</t>
@@ -215,18 +216,6 @@
     <t>Na matriz de rastreabilidade vertical, há o identificador do caso de teste correspondente ao requisito?</t>
   </si>
   <si>
-    <t>A atividade de planejamento do projeto foi executada?</t>
-  </si>
-  <si>
-    <t>A atividade de planejamaento do projeto gerou um "Cronograma do Projeto"?</t>
-  </si>
-  <si>
-    <t>A atividade de planejamento de projeto gerou um "Documento de Riscos do Projeto"?</t>
-  </si>
-  <si>
-    <t>A atividade de planejamento do projeto gerou um "Plano Geral do Projeto"?</t>
-  </si>
-  <si>
     <r>
       <t>Checklist:</t>
     </r>
@@ -295,6 +284,222 @@
   </si>
   <si>
     <t>Relatório de Impacto de Mudanças</t>
+  </si>
+  <si>
+    <t>Os IDs dos requisitos com inconformidade estão preenchidos?</t>
+  </si>
+  <si>
+    <t>Possui observação sobre os requisitos com inconformidade?</t>
+  </si>
+  <si>
+    <t>Possui comentários adicionais?</t>
+  </si>
+  <si>
+    <t>Possui aprovação do Gerente de Requisitos?</t>
+  </si>
+  <si>
+    <t>O processo de gerência de requisitos (PGR) atende as políticas da organização?</t>
+  </si>
+  <si>
+    <t>Ao final da atividade Gerenciar Rastreabilidade entre Requisitos, a métrica Índice de Requisito Rastreável é realizada?</t>
+  </si>
+  <si>
+    <t>Ao final da atividade Gerenciar Mudança dos requisitos, a métrica Indicador de Mudança de Requisitos é realizada?</t>
+  </si>
+  <si>
+    <t>A comunicação de "Solicitação de mudança de Requisito" está sendo registrada via email ou reunião?</t>
+  </si>
+  <si>
+    <t>A comunicação de "Solicitação de mudança de Requisito" foram realizadas pelo Gerente ou Cliente?</t>
+  </si>
+  <si>
+    <t>A comunicação de "Solicitação de mudança de Requisito" foram enviadas ao engenheiro de requisito?</t>
+  </si>
+  <si>
+    <t>A comunicação de "Solicitação de mudança de Requisito" foi realizada após identificar necessidade de alteração dos requisitos?</t>
+  </si>
+  <si>
+    <t>A comunicação de "Avaliação do cliente" está sendo registrada via email ou reunião?</t>
+  </si>
+  <si>
+    <t>A comunicação de "Avaliação do cliente" foram realizadas pelo Engenheiro de requisitos?</t>
+  </si>
+  <si>
+    <t>A comunicação de "Avaliação do cliente" foram enviadas ao cliente?</t>
+  </si>
+  <si>
+    <t>A comunicação de "Avaliação do cliente" foi realizada ao final da elicitação e do evantameto dos impactos das mudanças de requisitos?</t>
+  </si>
+  <si>
+    <t>As entradas para a atividade "Elicitar requisitos visão geral", foram entregues antes do inicio dessa atividade?</t>
+  </si>
+  <si>
+    <t>As tarefas da atividade "Elicitar requisitos visão geral", foram realizadas?</t>
+  </si>
+  <si>
+    <t>Os produtos da atividade "Elicitar requisitos visão geral", foram realizadas?</t>
+  </si>
+  <si>
+    <t>As ferramentas definidas para a atividade "Elicitar requisitos visão geral", foram utilizadas?</t>
+  </si>
+  <si>
+    <t>Os critério de saída da atividade "Elicitar requisitos visão geral", foram atendidos?</t>
+  </si>
+  <si>
+    <t>As entradas para a atividade "Obter avaliação do cliente", foram entregues antes do inicio dessa atividade?</t>
+  </si>
+  <si>
+    <t>As tarefas da atividade "Obter avaliação do cliente", foram realizadas?</t>
+  </si>
+  <si>
+    <t>As pré-condições para a atividade "Obter avaliação do cliente", foram atendidas?</t>
+  </si>
+  <si>
+    <t>Os produtos da atividade "Obter avaliação do cliente", foram realizadas?</t>
+  </si>
+  <si>
+    <t>As ferramentas definidas para a atividade "Obter avaliação do cliente", foram utilizadas?</t>
+  </si>
+  <si>
+    <t>Os critério de saída da atividade "Obter avaliação do cliente", foram atendidos?</t>
+  </si>
+  <si>
+    <t>As entradas para a atividade "Elicitar detalhamento cada parte", foram entregues antes do inicio dessa atividade?</t>
+  </si>
+  <si>
+    <t>As pré-condições para a atividade "Elicitar detalhamento cada parte", foram atendidas?</t>
+  </si>
+  <si>
+    <t>As tarefas da atividade "Elicitar detalhamento cada parte", foram realizadas?</t>
+  </si>
+  <si>
+    <t>Os critério de saída da atividade "Elicitar detalhamento cada parte", foram atendidos?</t>
+  </si>
+  <si>
+    <t>As ferramentas definidas para a atividade "Elicitar detalhamento cada parte", foram utilizadas?</t>
+  </si>
+  <si>
+    <t>Os produtos da atividade "Elicitar detalhamento cada parte", foram realizadas?</t>
+  </si>
+  <si>
+    <t>As entradas para a atividade "Revisar compromentimento da equipe", foram entregues antes do inicio dessa atividade?</t>
+  </si>
+  <si>
+    <t>Os critério de saída da atividade "Revisar compromentimento da equipe", foram atendidos?</t>
+  </si>
+  <si>
+    <t>As ferramentas definidas para a atividade "Revisar compromentimento da equipe", foram utilizadas?</t>
+  </si>
+  <si>
+    <t>Os produtos da atividade "Revisar compromentimento da equipe", foram realizadas?</t>
+  </si>
+  <si>
+    <t>As tarefas da atividade "Revisar compromentimento da equipe", foram realizadas?</t>
+  </si>
+  <si>
+    <t>As entradas para a atividade "Obter avaliação detalhada das especificações do cliente", foram entregues antes do inicio dessa atividade?</t>
+  </si>
+  <si>
+    <t>As pré-condições para a atividade "Obter avaliação detalhada das especificações do cliente", foram atendidas?</t>
+  </si>
+  <si>
+    <t>As tarefas da atividade "Obter avaliação detalhada das especificações do cliente", foram realizadas?</t>
+  </si>
+  <si>
+    <t>Os produtos da atividade "Obter avaliação detalhada das especificações do cliente", foram realizadas?</t>
+  </si>
+  <si>
+    <t>As ferramentas definidas para a atividade "Obter avaliação detalhada das especificações do cliente", foram utilizadas?</t>
+  </si>
+  <si>
+    <t>Os critério de saída da atividade "Obter avaliação detalhada das especificações do cliente", foram atendidos?</t>
+  </si>
+  <si>
+    <t>As entradas para a atividade "Gerenciar rastreabilidade entre requisitos", foram entregues antes do inicio dessa atividade?</t>
+  </si>
+  <si>
+    <t>Os critério de saída da atividade "Gerenciar rastreabilidade entre requisitos", foram atendidos?</t>
+  </si>
+  <si>
+    <t>As ferramentas definidas para a atividade "Gerenciar rastreabilidade entre requisitos", foram utilizadas?</t>
+  </si>
+  <si>
+    <t>Os produtos da atividade "Gerenciar rastreabilidade entre requisitos", foram realizadas?</t>
+  </si>
+  <si>
+    <t>As tarefas da atividade "Gerenciar rastreabilidade entre requisitos", foram realizadas?</t>
+  </si>
+  <si>
+    <t>As entradas para a atividade "Avaliar Consistência dos documentos de requisitos", foram entregues antes do inicio dessa atividade?</t>
+  </si>
+  <si>
+    <t>Os critério de saída da atividade "Avaliar Consistência dos documentos de requisitos", foram atendidos?</t>
+  </si>
+  <si>
+    <t>As ferramentas definidas para a atividade "Avaliar Consistência dos documentos de requisitos", foram utilizadas?</t>
+  </si>
+  <si>
+    <t>Os produtos da atividade "Avaliar Consistência dos documentos de requisitos", foram realizadas?</t>
+  </si>
+  <si>
+    <t>As tarefas da atividade "Avaliar Consistência dos documentos de requisitos", foram realizadas?</t>
+  </si>
+  <si>
+    <t>As pré-condições para a atividade "Avaliar Consistência dos documentos de requisitos", foram atendidas?</t>
+  </si>
+  <si>
+    <t>As entradas para a atividade "Analisar Impactos de Mudanças", foram entregues antes do inicio dessa atividade?</t>
+  </si>
+  <si>
+    <t>Os critério de saída da atividade "Analisar Impactos de Mudanças", foram atendidos?</t>
+  </si>
+  <si>
+    <t>As ferramentas definidas para a atividade "Analisar Impactos de Mudanças", foram utilizadas?</t>
+  </si>
+  <si>
+    <t>Os produtos da atividade "Analisar Impactos de Mudanças", foram realizadas?</t>
+  </si>
+  <si>
+    <t>As tarefas da atividade "Analisar Impactos de Mudanças", foram realizadas?</t>
+  </si>
+  <si>
+    <t>As pré-condições para a atividade "Analisar Impactos de Mudanças", foram atendidas?</t>
+  </si>
+  <si>
+    <t>As entradas para a atividade "Obter avaliação da mudança pelo Gerente de Projeto", foram entregues antes do inicio dessa atividade?</t>
+  </si>
+  <si>
+    <t>Os critério de saída da atividade "Obter avaliação da mudança pelo Gerente de Projeto", foram atendidos?</t>
+  </si>
+  <si>
+    <t>As ferramentas definidas para a atividade "Obter avaliação da mudança pelo Gerente de Projeto", foram utilizadas?</t>
+  </si>
+  <si>
+    <t>Os produtos da atividade "Obter avaliação da mudança pelo Gerente de Projeto", foram realizadas?</t>
+  </si>
+  <si>
+    <t>As tarefas da atividade "Obter avaliação da mudança pelo Gerente de Projeto", foram realizadas?</t>
+  </si>
+  <si>
+    <t>As pré-condições para a atividade "Obter avaliação da mudança pelo Gerente de Projeto", foram atendidas?</t>
+  </si>
+  <si>
+    <t>As entradas para a atividade "Obter avaliação da mudança pelo cliente", foram entregues antes do inicio dessa atividade?</t>
+  </si>
+  <si>
+    <t>Os produtos da atividade "Obter avaliação da mudança pelo cliente", foram realizadas?</t>
+  </si>
+  <si>
+    <t>As ferramentas definidas para a atividade "Obter avaliação da mudança pelo cliente", foram utilizadas?</t>
+  </si>
+  <si>
+    <t>Os critério de saída da atividade "Obter avaliação da mudança pelo cliente", foram atendidos?</t>
+  </si>
+  <si>
+    <t>As tarefas da atividade "Obter avaliação da mudança pelo cliente", foram realizadas?</t>
+  </si>
+  <si>
+    <t>As pré-condições para a atividade "Obter avaliação da mudança pelo cliente", foram atendidas?</t>
   </si>
 </sst>
 </file>
@@ -433,12 +638,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -448,6 +647,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -752,7 +957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -763,17 +968,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="4"/>
+      <c r="B1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
@@ -781,59 +986,59 @@
     </row>
     <row r="5" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="6" t="s">
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="10" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="10" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="10" t="s">
+    <row r="14" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="11"/>
-      <c r="C14" s="12" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -857,26 +1062,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="85.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="120.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="A1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -897,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -906,7 +1111,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -915,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -924,7 +1129,327 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -932,31 +1457,31 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -975,6 +1500,9 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -982,289 +1510,35 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" ref="A5:A50" si="0">A4+1</f>
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1284,12 +1558,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1382,12 +1656,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1463,12 +1737,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1544,12 +1818,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1625,12 +1899,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1733,12 +2007,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1759,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1768,7 +2042,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1777,7 +2051,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1786,7 +2060,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1795,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1804,7 +2078,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Etapa 2/Checklist Gerência de Requisitos.xlsx
+++ b/Etapa 2/Checklist Gerência de Requisitos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="127">
   <si>
     <t xml:space="preserve">Controle de Qualidade</t>
   </si>
@@ -477,6 +477,9 @@
   </si>
   <si>
     <t xml:space="preserve">Há um documento de Especificação de Requisitos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isento</t>
   </si>
   <si>
     <t xml:space="preserve">No documento, há o número identificador do requisito?</t>
@@ -869,7 +872,7 @@
   <dimension ref="B1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="1" sqref="C3:C6 C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -985,8 +988,8 @@
   </sheetPr>
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="B30" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C65" activeCellId="0" sqref="C65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="B30" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C65" activeCellId="1" sqref="C3:C6 C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1861,7 +1864,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="C3:C6 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1952,7 +1955,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
+      <selection pane="topLeft" activeCell="H30" activeCellId="1" sqref="C3:C6 H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1960,7 +1963,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.53"/>
   </cols>
   <sheetData>
@@ -2061,7 +2064,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
+      <selection pane="topLeft" activeCell="C35" activeCellId="1" sqref="C3:C6 C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2151,7 +2154,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="1" sqref="C3:C6 C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2159,7 +2162,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.53"/>
   </cols>
   <sheetData>
@@ -2241,8 +2244,8 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2250,7 +2253,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.53"/>
   </cols>
   <sheetData>
@@ -2276,39 +2279,51 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <f aca="false">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <f aca="false">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <f aca="false">A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2333,7 +2348,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
+      <selection pane="topLeft" activeCell="H32" activeCellId="1" sqref="C3:C6 H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2341,13 +2356,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="106"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -2372,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2381,7 +2396,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2390,7 +2405,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2399,7 +2414,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2408,7 +2423,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2417,7 +2432,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2426,7 +2441,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2451,7 +2466,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C3:C6 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2459,13 +2474,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -2490,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2499,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2508,7 +2523,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2517,7 +2532,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2526,7 +2541,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2535,7 +2550,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Etapa 2/Checklist Gerência de Requisitos.xlsx
+++ b/Etapa 2/Checklist Gerência de Requisitos.xlsx
@@ -872,7 +872,7 @@
   <dimension ref="B1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="1" sqref="C3:C6 C20"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -989,7 +989,7 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="B30" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C65" activeCellId="1" sqref="C3:C6 C65"/>
+      <selection pane="topLeft" activeCell="C65" activeCellId="0" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="C3:C6 C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1955,7 +1955,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H30" activeCellId="1" sqref="C3:C6 H30"/>
+      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2064,7 +2064,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="1" sqref="C3:C6 C35"/>
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2154,7 +2154,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="1" sqref="C3:C6 C29"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2245,7 +2245,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C3:C6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2348,7 +2348,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H32" activeCellId="1" sqref="C3:C6 H32"/>
+      <selection pane="topLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2466,7 +2466,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C3:C6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Etapa 2/Checklist Gerência de Requisitos.xlsx
+++ b/Etapa 2/Checklist Gerência de Requisitos.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Indice" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Processo" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="CCR" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="DAR" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="DCE" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="ECU" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="ER" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="MRR" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="RIM" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Indice" sheetId="1" r:id="rId1"/>
+    <sheet name="Processo" sheetId="2" r:id="rId2"/>
+    <sheet name="CCR" sheetId="3" r:id="rId3"/>
+    <sheet name="DAR" sheetId="4" r:id="rId4"/>
+    <sheet name="DCE" sheetId="5" r:id="rId5"/>
+    <sheet name="ECU" sheetId="6" r:id="rId6"/>
+    <sheet name="ER" sheetId="7" r:id="rId7"/>
+    <sheet name="MRR" sheetId="8" r:id="rId8"/>
+    <sheet name="RIM" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">CCR!$A$1:$D$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Indice!$A$1:$D$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">Processo!$A$1:$D$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">CCR!$A$1:$D$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Indice!$A$1:$D$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Processo!$A$1:$D$70</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -33,15 +32,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="127">
-  <si>
-    <t xml:space="preserve">Controle de Qualidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processo a ser avaliado:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerência de Requisitos</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="134">
+  <si>
+    <t>Controle de Qualidade</t>
+  </si>
+  <si>
+    <t>Processo a ser avaliado:</t>
+  </si>
+  <si>
+    <t>Gerência de Requisitos</t>
   </si>
   <si>
     <t xml:space="preserve">Checklist para Controle de Qualidade do processo: </t>
@@ -50,25 +49,25 @@
     <t xml:space="preserve">Checklist para Controle de Qualidade dos produtos: </t>
   </si>
   <si>
-    <t xml:space="preserve">Checklist Consistência de Requisitos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documento de Aprovação dos Requisitos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documento de Compromentimento da Equipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Especificação de Caso de Uso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Especificação de Requisitos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matriz de Rastreabilidade de Requisitos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relatório de Impacto de Mudanças</t>
+    <t>Checklist Consistência de Requisitos</t>
+  </si>
+  <si>
+    <t>Documento de Aprovação dos Requisitos</t>
+  </si>
+  <si>
+    <t>Documento de Compromentimento da Equipe</t>
+  </si>
+  <si>
+    <t>Especificação de Caso de Uso</t>
+  </si>
+  <si>
+    <t>Especificação de Requisitos</t>
+  </si>
+  <si>
+    <t>Matriz de Rastreabilidade de Requisitos</t>
+  </si>
+  <si>
+    <t>Relatório de Impacto de Mudanças</t>
   </si>
   <si>
     <r>
@@ -79,11 +78,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Checklist:</t>
+      <t>Checklist:</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -94,229 +93,229 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Numero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item de Checklist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não conformidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O processo de gerência de requisitos (PGR) atende as políticas da organização?</t>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Item de Checklist</t>
+  </si>
+  <si>
+    <t>Não conformidade</t>
+  </si>
+  <si>
+    <t>OBS</t>
+  </si>
+  <si>
+    <t>O processo de gerência de requisitos (PGR) atende as políticas da organização?</t>
   </si>
   <si>
     <t xml:space="preserve">Não há dados suficientes para aferir </t>
   </si>
   <si>
-    <t xml:space="preserve">Ao final da atividade Gerenciar Rastreabilidade entre Requisitos, a métrica Índice de Requisito Rastreável é realizada?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não há documentos com registros.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ao final da atividade Gerenciar Mudança dos requisitos, a métrica Indicador de Mudança de Requisitos é realizada?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A comunicação de "Solicitação de mudança de Requisito" está sendo registrada via email ou reunião?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A comunicação de "Solicitação de mudança de Requisito" foram realizadas pelo Gerente ou Cliente?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A comunicação de "Solicitação de mudança de Requisito" foram enviadas ao engenheiro de requisito?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A comunicação de "Solicitação de mudança de Requisito" foi realizada após identificar necessidade de alteração dos requisitos?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A comunicação de "Avaliação do cliente" está sendo registrada via email ou reunião?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A comunicação de "Avaliação do cliente" foram realizadas pelo Engenheiro de requisitos?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A comunicação de "Avaliação do cliente" foram enviadas ao cliente?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A comunicação de "Avaliação do cliente" foi realizada ao final da elicitação e do evantameto dos impactos das mudanças de requisitos?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As entradas para a atividade "Elicitar requisitos visão geral", foram entregues antes do inicio dessa atividade?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As tarefas da atividade "Elicitar requisitos visão geral", foram realizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os produtos da atividade "Elicitar requisitos visão geral", foram realizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As ferramentas definidas para a atividade "Elicitar requisitos visão geral", foram utilizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os critério de saída da atividade "Elicitar requisitos visão geral", foram atendidos?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As entradas para a atividade "Obter avaliação do cliente", foram entregues antes do inicio dessa atividade?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As pré-condições para a atividade "Obter avaliação do cliente", foram atendidas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As tarefas da atividade "Obter avaliação do cliente", foram realizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os produtos da atividade "Obter avaliação do cliente", foram realizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As ferramentas definidas para a atividade "Obter avaliação do cliente", foram utilizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os critério de saída da atividade "Obter avaliação do cliente", foram atendidos?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As entradas para a atividade "Elicitar detalhamento cada parte", foram entregues antes do inicio dessa atividade?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As pré-condições para a atividade "Elicitar detalhamento cada parte", foram atendidas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As tarefas da atividade "Elicitar detalhamento cada parte", foram realizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os produtos da atividade "Elicitar detalhamento cada parte", foram realizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As ferramentas definidas para a atividade "Elicitar detalhamento cada parte", foram utilizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os critério de saída da atividade "Elicitar detalhamento cada parte", foram atendidos?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As entradas para a atividade "Revisar compromentimento da equipe", foram entregues antes do inicio dessa atividade?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As tarefas da atividade "Revisar compromentimento da equipe", foram realizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os produtos da atividade "Revisar compromentimento da equipe", foram realizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As ferramentas definidas para a atividade "Revisar compromentimento da equipe", foram utilizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os critério de saída da atividade "Revisar compromentimento da equipe", foram atendidos?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As entradas para a atividade "Obter avaliação detalhada das especificações do cliente", foram entregues antes do inicio dessa atividade?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As pré-condições para a atividade "Obter avaliação detalhada das especificações do cliente", foram atendidas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As tarefas da atividade "Obter avaliação detalhada das especificações do cliente", foram realizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os produtos da atividade "Obter avaliação detalhada das especificações do cliente", foram realizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As ferramentas definidas para a atividade "Obter avaliação detalhada das especificações do cliente", foram utilizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os critério de saída da atividade "Obter avaliação detalhada das especificações do cliente", foram atendidos?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As entradas para a atividade "Gerenciar rastreabilidade entre requisitos", foram entregues antes do inicio dessa atividade?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As tarefas da atividade "Gerenciar rastreabilidade entre requisitos", foram realizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os produtos da atividade "Gerenciar rastreabilidade entre requisitos", foram realizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As ferramentas definidas para a atividade "Gerenciar rastreabilidade entre requisitos", foram utilizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os critério de saída da atividade "Gerenciar rastreabilidade entre requisitos", foram atendidos?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As entradas para a atividade "Avaliar Consistência dos documentos de requisitos", foram entregues antes do inicio dessa atividade?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As pré-condições para a atividade "Avaliar Consistência dos documentos de requisitos", foram atendidas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As tarefas da atividade "Avaliar Consistência dos documentos de requisitos", foram realizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os produtos da atividade "Avaliar Consistência dos documentos de requisitos", foram realizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As ferramentas definidas para a atividade "Avaliar Consistência dos documentos de requisitos", foram utilizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os critério de saída da atividade "Avaliar Consistência dos documentos de requisitos", foram atendidos?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As entradas para a atividade "Analisar Impactos de Mudanças", foram entregues antes do inicio dessa atividade?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As pré-condições para a atividade "Analisar Impactos de Mudanças", foram atendidas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As tarefas da atividade "Analisar Impactos de Mudanças", foram realizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os produtos da atividade "Analisar Impactos de Mudanças", foram realizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As ferramentas definidas para a atividade "Analisar Impactos de Mudanças", foram utilizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os critério de saída da atividade "Analisar Impactos de Mudanças", foram atendidos?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As entradas para a atividade "Obter avaliação da mudança pelo Gerente de Projeto", foram entregues antes do inicio dessa atividade?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As pré-condições para a atividade "Obter avaliação da mudança pelo Gerente de Projeto", foram atendidas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As tarefas da atividade "Obter avaliação da mudança pelo Gerente de Projeto", foram realizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os produtos da atividade "Obter avaliação da mudança pelo Gerente de Projeto", foram realizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As ferramentas definidas para a atividade "Obter avaliação da mudança pelo Gerente de Projeto", foram utilizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os critério de saída da atividade "Obter avaliação da mudança pelo Gerente de Projeto", foram atendidos?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As entradas para a atividade "Obter avaliação da mudança pelo cliente", foram entregues antes do inicio dessa atividade?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As pré-condições para a atividade "Obter avaliação da mudança pelo cliente", foram atendidas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As tarefas da atividade "Obter avaliação da mudança pelo cliente", foram realizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os produtos da atividade "Obter avaliação da mudança pelo cliente", foram realizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As ferramentas definidas para a atividade "Obter avaliação da mudança pelo cliente", foram utilizadas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os critério de saída da atividade "Obter avaliação da mudança pelo cliente", foram atendidos?</t>
+    <t>Ao final da atividade Gerenciar Rastreabilidade entre Requisitos, a métrica Índice de Requisito Rastreável é realizada?</t>
+  </si>
+  <si>
+    <t>Não há documentos com registros.</t>
+  </si>
+  <si>
+    <t>Ao final da atividade Gerenciar Mudança dos requisitos, a métrica Indicador de Mudança de Requisitos é realizada?</t>
+  </si>
+  <si>
+    <t>A comunicação de "Solicitação de mudança de Requisito" está sendo registrada via email ou reunião?</t>
+  </si>
+  <si>
+    <t>isento</t>
+  </si>
+  <si>
+    <t>A comunicação de "Solicitação de mudança de Requisito" foram realizadas pelo Gerente ou Cliente?</t>
+  </si>
+  <si>
+    <t>A comunicação de "Solicitação de mudança de Requisito" foram enviadas ao engenheiro de requisito?</t>
+  </si>
+  <si>
+    <t>A comunicação de "Solicitação de mudança de Requisito" foi realizada após identificar necessidade de alteração dos requisitos?</t>
+  </si>
+  <si>
+    <t>A comunicação de "Avaliação do cliente" está sendo registrada via email ou reunião?</t>
+  </si>
+  <si>
+    <t>A comunicação de "Avaliação do cliente" foram realizadas pelo Engenheiro de requisitos?</t>
+  </si>
+  <si>
+    <t>A comunicação de "Avaliação do cliente" foram enviadas ao cliente?</t>
+  </si>
+  <si>
+    <t>A comunicação de "Avaliação do cliente" foi realizada ao final da elicitação e do evantameto dos impactos das mudanças de requisitos?</t>
+  </si>
+  <si>
+    <t>As entradas para a atividade "Elicitar requisitos visão geral", foram entregues antes do inicio dessa atividade?</t>
+  </si>
+  <si>
+    <t>As tarefas da atividade "Elicitar requisitos visão geral", foram realizadas?</t>
+  </si>
+  <si>
+    <t>Os produtos da atividade "Elicitar requisitos visão geral", foram realizadas?</t>
+  </si>
+  <si>
+    <t>As ferramentas definidas para a atividade "Elicitar requisitos visão geral", foram utilizadas?</t>
+  </si>
+  <si>
+    <t>Os critério de saída da atividade "Elicitar requisitos visão geral", foram atendidos?</t>
+  </si>
+  <si>
+    <t>As entradas para a atividade "Obter avaliação do cliente", foram entregues antes do inicio dessa atividade?</t>
+  </si>
+  <si>
+    <t>As pré-condições para a atividade "Obter avaliação do cliente", foram atendidas?</t>
+  </si>
+  <si>
+    <t>As tarefas da atividade "Obter avaliação do cliente", foram realizadas?</t>
+  </si>
+  <si>
+    <t>Os produtos da atividade "Obter avaliação do cliente", foram realizadas?</t>
+  </si>
+  <si>
+    <t>As ferramentas definidas para a atividade "Obter avaliação do cliente", foram utilizadas?</t>
+  </si>
+  <si>
+    <t>Os critério de saída da atividade "Obter avaliação do cliente", foram atendidos?</t>
+  </si>
+  <si>
+    <t>As entradas para a atividade "Elicitar detalhamento cada parte", foram entregues antes do inicio dessa atividade?</t>
+  </si>
+  <si>
+    <t>As pré-condições para a atividade "Elicitar detalhamento cada parte", foram atendidas?</t>
+  </si>
+  <si>
+    <t>As tarefas da atividade "Elicitar detalhamento cada parte", foram realizadas?</t>
+  </si>
+  <si>
+    <t>Os produtos da atividade "Elicitar detalhamento cada parte", foram realizadas?</t>
+  </si>
+  <si>
+    <t>As ferramentas definidas para a atividade "Elicitar detalhamento cada parte", foram utilizadas?</t>
+  </si>
+  <si>
+    <t>Os critério de saída da atividade "Elicitar detalhamento cada parte", foram atendidos?</t>
+  </si>
+  <si>
+    <t>As entradas para a atividade "Revisar compromentimento da equipe", foram entregues antes do inicio dessa atividade?</t>
+  </si>
+  <si>
+    <t>As tarefas da atividade "Revisar compromentimento da equipe", foram realizadas?</t>
+  </si>
+  <si>
+    <t>Os produtos da atividade "Revisar compromentimento da equipe", foram realizadas?</t>
+  </si>
+  <si>
+    <t>As ferramentas definidas para a atividade "Revisar compromentimento da equipe", foram utilizadas?</t>
+  </si>
+  <si>
+    <t>Os critério de saída da atividade "Revisar compromentimento da equipe", foram atendidos?</t>
+  </si>
+  <si>
+    <t>As entradas para a atividade "Obter avaliação detalhada das especificações do cliente", foram entregues antes do inicio dessa atividade?</t>
+  </si>
+  <si>
+    <t>As pré-condições para a atividade "Obter avaliação detalhada das especificações do cliente", foram atendidas?</t>
+  </si>
+  <si>
+    <t>As tarefas da atividade "Obter avaliação detalhada das especificações do cliente", foram realizadas?</t>
+  </si>
+  <si>
+    <t>Os produtos da atividade "Obter avaliação detalhada das especificações do cliente", foram realizadas?</t>
+  </si>
+  <si>
+    <t>As ferramentas definidas para a atividade "Obter avaliação detalhada das especificações do cliente", foram utilizadas?</t>
+  </si>
+  <si>
+    <t>Os critério de saída da atividade "Obter avaliação detalhada das especificações do cliente", foram atendidos?</t>
+  </si>
+  <si>
+    <t>As entradas para a atividade "Gerenciar rastreabilidade entre requisitos", foram entregues antes do inicio dessa atividade?</t>
+  </si>
+  <si>
+    <t>As tarefas da atividade "Gerenciar rastreabilidade entre requisitos", foram realizadas?</t>
+  </si>
+  <si>
+    <t>Os produtos da atividade "Gerenciar rastreabilidade entre requisitos", foram realizadas?</t>
+  </si>
+  <si>
+    <t>As ferramentas definidas para a atividade "Gerenciar rastreabilidade entre requisitos", foram utilizadas?</t>
+  </si>
+  <si>
+    <t>Os critério de saída da atividade "Gerenciar rastreabilidade entre requisitos", foram atendidos?</t>
+  </si>
+  <si>
+    <t>As entradas para a atividade "Avaliar Consistência dos documentos de requisitos", foram entregues antes do inicio dessa atividade?</t>
+  </si>
+  <si>
+    <t>As pré-condições para a atividade "Avaliar Consistência dos documentos de requisitos", foram atendidas?</t>
+  </si>
+  <si>
+    <t>As tarefas da atividade "Avaliar Consistência dos documentos de requisitos", foram realizadas?</t>
+  </si>
+  <si>
+    <t>Os produtos da atividade "Avaliar Consistência dos documentos de requisitos", foram realizadas?</t>
+  </si>
+  <si>
+    <t>As ferramentas definidas para a atividade "Avaliar Consistência dos documentos de requisitos", foram utilizadas?</t>
+  </si>
+  <si>
+    <t>Os critério de saída da atividade "Avaliar Consistência dos documentos de requisitos", foram atendidos?</t>
+  </si>
+  <si>
+    <t>As entradas para a atividade "Analisar Impactos de Mudanças", foram entregues antes do inicio dessa atividade?</t>
+  </si>
+  <si>
+    <t>As pré-condições para a atividade "Analisar Impactos de Mudanças", foram atendidas?</t>
+  </si>
+  <si>
+    <t>As tarefas da atividade "Analisar Impactos de Mudanças", foram realizadas?</t>
+  </si>
+  <si>
+    <t>Os produtos da atividade "Analisar Impactos de Mudanças", foram realizadas?</t>
+  </si>
+  <si>
+    <t>As ferramentas definidas para a atividade "Analisar Impactos de Mudanças", foram utilizadas?</t>
+  </si>
+  <si>
+    <t>Os critério de saída da atividade "Analisar Impactos de Mudanças", foram atendidos?</t>
+  </si>
+  <si>
+    <t>As entradas para a atividade "Obter avaliação da mudança pelo Gerente de Projeto", foram entregues antes do inicio dessa atividade?</t>
+  </si>
+  <si>
+    <t>As pré-condições para a atividade "Obter avaliação da mudança pelo Gerente de Projeto", foram atendidas?</t>
+  </si>
+  <si>
+    <t>As tarefas da atividade "Obter avaliação da mudança pelo Gerente de Projeto", foram realizadas?</t>
+  </si>
+  <si>
+    <t>Os produtos da atividade "Obter avaliação da mudança pelo Gerente de Projeto", foram realizadas?</t>
+  </si>
+  <si>
+    <t>As ferramentas definidas para a atividade "Obter avaliação da mudança pelo Gerente de Projeto", foram utilizadas?</t>
+  </si>
+  <si>
+    <t>Os critério de saída da atividade "Obter avaliação da mudança pelo Gerente de Projeto", foram atendidos?</t>
+  </si>
+  <si>
+    <t>As entradas para a atividade "Obter avaliação da mudança pelo cliente", foram entregues antes do inicio dessa atividade?</t>
+  </si>
+  <si>
+    <t>As pré-condições para a atividade "Obter avaliação da mudança pelo cliente", foram atendidas?</t>
+  </si>
+  <si>
+    <t>As tarefas da atividade "Obter avaliação da mudança pelo cliente", foram realizadas?</t>
+  </si>
+  <si>
+    <t>Os produtos da atividade "Obter avaliação da mudança pelo cliente", foram realizadas?</t>
+  </si>
+  <si>
+    <t>As ferramentas definidas para a atividade "Obter avaliação da mudança pelo cliente", foram utilizadas?</t>
+  </si>
+  <si>
+    <t>Os critério de saída da atividade "Obter avaliação da mudança pelo cliente", foram atendidos?</t>
   </si>
   <si>
     <r>
@@ -327,11 +326,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Checklist:</t>
+      <t>Checklist:</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -342,16 +341,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Os IDs dos requisitos com inconformidade estão preenchidos?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Possui observação sobre os requisitos com inconformidade?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Possui comentários adicionais?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Possui aprovação do Gerente de Requisitos?</t>
+    <t>Os IDs dos requisitos com inconformidade estão preenchidos?</t>
+  </si>
+  <si>
+    <t>Possui observação sobre os requisitos com inconformidade?</t>
+  </si>
+  <si>
+    <t>Possui comentários adicionais?</t>
+  </si>
+  <si>
+    <t>Possui aprovação do Gerente de Requisitos?</t>
   </si>
   <si>
     <r>
@@ -362,11 +361,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Checklist:</t>
+      <t>Checklist:</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -377,22 +376,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Há um documento de Aprovação de Requisitos?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Há um anexo do documento a ser aprovado?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tem a assinatura do cliente?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tem a assinatura do gerente do projeto?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tem a assinatura do gerente de requisito?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tem data e local da assinatura?</t>
+    <t>Há um documento de Aprovação de Requisitos?</t>
+  </si>
+  <si>
+    <t>Há um anexo do documento a ser aprovado?</t>
+  </si>
+  <si>
+    <t>Tem a assinatura do cliente?</t>
+  </si>
+  <si>
+    <t>Tem a assinatura do gerente do projeto?</t>
+  </si>
+  <si>
+    <t>Tem a assinatura do gerente de requisito?</t>
+  </si>
+  <si>
+    <t>Tem data e local da assinatura?</t>
   </si>
   <si>
     <r>
@@ -403,11 +402,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Checklist:</t>
+      <t>Checklist:</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -418,16 +417,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Há um documento de comprometimento da equipe técnica?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se hover o documento de comprometimento, há anexos dos documentos dos requisitos levantados?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todos os membros da equipe técnica do projeto assinaram o documento de compromentimento?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Há registro de local e data no documento de Comprometimento da Equipe?</t>
+    <t>Há um documento de comprometimento da equipe técnica?</t>
+  </si>
+  <si>
+    <t>Se hover o documento de comprometimento, há anexos dos documentos dos requisitos levantados?</t>
+  </si>
+  <si>
+    <t>Todos os membros da equipe técnica do projeto assinaram o documento de compromentimento?</t>
+  </si>
+  <si>
+    <t>Há registro de local e data no documento de Comprometimento da Equipe?</t>
   </si>
   <si>
     <r>
@@ -438,11 +437,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Checklist:</t>
+      <t>Checklist:</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -461,11 +460,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Checklist:</t>
+      <t>Checklist:</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -476,19 +475,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Há um documento de Especificação de Requisitos?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No documento, há o número identificador do requisito?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Há uma breve justificativa do requisito?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Há um campo para inserir descrição adicional do requisito?</t>
+    <t>Há um documento de Especificação de Requisitos?</t>
+  </si>
+  <si>
+    <t>Isento</t>
+  </si>
+  <si>
+    <t>No documento, há o número identificador do requisito?</t>
+  </si>
+  <si>
+    <t>Há uma breve justificativa do requisito?</t>
+  </si>
+  <si>
+    <t>Há um campo para inserir descrição adicional do requisito?</t>
   </si>
   <si>
     <r>
@@ -499,11 +498,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Checklist:</t>
+      <t>Checklist:</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -514,25 +513,25 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Há uma Matriz de Rastreabilidade de Requisitos?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na matriz de rastreabilidade horizontal, há um identificador do requisito?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na matriz de rastreabilidade horizontal, há um idenditifador do requisito que esse requisito depende?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na matriz de rastreabilidade vertical, há um identificador do requisito?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na matriz de rastreabilidade vertical, há o identificador do caso de uso correspondente ao requisito?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na matriz de rastreabilidade vertical, há o identificador do modulo de código correspondente ao requisito?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na matriz de rastreabilidade vertical, há o identificador do caso de teste correspondente ao requisito?</t>
+    <t>Há uma Matriz de Rastreabilidade de Requisitos?</t>
+  </si>
+  <si>
+    <t>Na matriz de rastreabilidade horizontal, há um identificador do requisito?</t>
+  </si>
+  <si>
+    <t>Na matriz de rastreabilidade horizontal, há um idenditifador do requisito que esse requisito depende?</t>
+  </si>
+  <si>
+    <t>Na matriz de rastreabilidade vertical, há um identificador do requisito?</t>
+  </si>
+  <si>
+    <t>Na matriz de rastreabilidade vertical, há o identificador do caso de uso correspondente ao requisito?</t>
+  </si>
+  <si>
+    <t>Na matriz de rastreabilidade vertical, há o identificador do modulo de código correspondente ao requisito?</t>
+  </si>
+  <si>
+    <t>Na matriz de rastreabilidade vertical, há o identificador do caso de teste correspondente ao requisito?</t>
   </si>
   <si>
     <r>
@@ -543,11 +542,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Checklist:</t>
+      <t>Checklist:</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -558,32 +557,50 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Há um relatório de impácto de mudanças?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os requisitos alterados, adicionados e excluídos são identificados?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O relatório resgistra o estatus dos requisitos alterados?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os requisitos impactados são identificados?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No caso de novos requisitos há especificação desses requisitos?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No caso de requisitos alterados há especificação das alterações realizadas?</t>
+    <t>Há um relatório de impácto de mudanças?</t>
+  </si>
+  <si>
+    <t>Os requisitos alterados, adicionados e excluídos são identificados?</t>
+  </si>
+  <si>
+    <t>O relatório resgistra o estatus dos requisitos alterados?</t>
+  </si>
+  <si>
+    <t>Os requisitos impactados são identificados?</t>
+  </si>
+  <si>
+    <t>No caso de novos requisitos há especificação desses requisitos?</t>
+  </si>
+  <si>
+    <t>No caso de requisitos alterados há especificação das alterações realizadas?</t>
+  </si>
+  <si>
+    <t>Apresenta não conformidade</t>
+  </si>
+  <si>
+    <t>Na coluna "Inconformidades Encontradas" onde deveria conter o ID do requisito, contém outras informações, em alguns casos</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Há não conformidade</t>
+  </si>
+  <si>
+    <t>Não há identificador do caso de uso correspondente ao requisito</t>
+  </si>
+  <si>
+    <t>Não há referência ao módulo de código correspondente ao requisito</t>
+  </si>
+  <si>
+    <t>Não há referência ao caso de teste correspondente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -592,22 +609,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -615,7 +617,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -623,12 +625,19 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -652,155 +661,108 @@
     </fill>
   </fills>
   <borders count="7">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -859,101 +821,395 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Escritório">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Escritório">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Escritório">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.53"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" customWidth="1"/>
+    <col min="4" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="4" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="8" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="6"/>
-      <c r="C9" s="9" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="6"/>
-      <c r="C10" s="9" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="6"/>
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="6"/>
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="6"/>
-      <c r="C13" s="9" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="10"/>
-      <c r="C14" s="11" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -971,45 +1227,37 @@
     <hyperlink ref="C13" location="MRR!A1" display="Matriz de Rastreabilidade de Requisitos"/>
     <hyperlink ref="C14" location="RIM!A1" display="Relatório de Impacto de Mudanças"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="91" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" scale="91" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="B30" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C65" activeCellId="0" sqref="C65"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B7" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="120.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.53"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="120.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
@@ -1023,47 +1271,47 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <f aca="false">A3+1</f>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <f aca="false">A4+1</f>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <f aca="false">A5+1</f>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -1071,12 +1319,12 @@
       </c>
       <c r="D6" s="13"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <f aca="false">A6+1</f>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -1084,12 +1332,12 @@
       </c>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <f aca="false">A7+1</f>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -1097,12 +1345,12 @@
       </c>
       <c r="D8" s="13"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <f aca="false">A8+1</f>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -1110,69 +1358,69 @@
       </c>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <f aca="false">A9+1</f>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <f aca="false">A10+1</f>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <f aca="false">A11+1</f>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <f aca="false">A12+1</f>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <f aca="false">A13+1</f>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <f aca="false">A14+1</f>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -1182,660 +1430,660 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <f aca="false">A15+1</f>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <f aca="false">A16+1</f>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <f aca="false">A17+1</f>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <f aca="false">A18+1</f>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <f aca="false">A19+1</f>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <f aca="false">A20+1</f>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>38</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <f aca="false">A21+1</f>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <f aca="false">A22+1</f>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <f aca="false">A23+1</f>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <f aca="false">A24+1</f>
-        <v>23</v>
-      </c>
-      <c r="B25" s="0" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <f aca="false">A25+1</f>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <f aca="false">A26+1</f>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <f aca="false">A27+1</f>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <f aca="false">A28+1</f>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <f aca="false">A29+1</f>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <f aca="false">A30+1</f>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <f aca="false">A31+1</f>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <f aca="false">A32+1</f>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <f aca="false">A33+1</f>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>51</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <f aca="false">A34+1</f>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>52</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <f aca="false">A35+1</f>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" ref="A36:A70" si="1">A35+1</f>
         <v>34</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>53</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <f aca="false">A36+1</f>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>54</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
-        <f aca="false">A37+1</f>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>55</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <f aca="false">A38+1</f>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>56</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <f aca="false">A39+1</f>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>57</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <f aca="false">A40+1</f>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>58</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <f aca="false">A41+1</f>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>59</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <f aca="false">A42+1</f>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>60</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <f aca="false">A43+1</f>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>61</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <f aca="false">A44+1</f>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>62</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <f aca="false">A45+1</f>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>63</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <f aca="false">A46+1</f>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>64</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
-        <f aca="false">A47+1</f>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" t="s">
         <v>65</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
-        <f aca="false">A48+1</f>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" t="s">
         <v>66</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
-        <f aca="false">A49+1</f>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" t="s">
         <v>67</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
-        <f aca="false">A50+1</f>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
-        <f aca="false">A51+1</f>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" t="s">
         <v>69</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
-        <f aca="false">A52+1</f>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" t="s">
         <v>70</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
-        <f aca="false">A53+1</f>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>71</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
-        <f aca="false">A54+1</f>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>72</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
-        <f aca="false">A55+1</f>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>73</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
-        <f aca="false">A56+1</f>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>74</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
-        <f aca="false">A57+1</f>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" t="s">
         <v>75</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
-        <f aca="false">A58+1</f>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>76</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
-        <f aca="false">A59+1</f>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>77</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
-        <f aca="false">A60+1</f>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" t="s">
         <v>78</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
-        <f aca="false">A61+1</f>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" t="s">
         <v>79</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
-        <f aca="false">A62+1</f>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" t="s">
         <v>80</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
-        <f aca="false">A63+1</f>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>81</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
-        <f aca="false">A64+1</f>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" t="s">
         <v>82</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
-        <f aca="false">A65+1</f>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" t="s">
         <v>83</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
-        <f aca="false">A66+1</f>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" t="s">
         <v>84</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
-        <f aca="false">A67+1</f>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" t="s">
         <v>85</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
-        <f aca="false">A68+1</f>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" t="s">
         <v>86</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
-        <f aca="false">A69+1</f>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" t="s">
         <v>87</v>
       </c>
       <c r="C70" s="13" t="s">
@@ -1846,44 +2094,37 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="58" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" scale="58" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.53"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="129.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
@@ -1897,85 +2138,92 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <f aca="false">A3+1</f>
+      <c r="C3" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <f aca="false">A4+1</f>
+      <c r="C4" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <f aca="false">A5+1</f>
+      <c r="C5" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>A5+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="C6" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="96" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" scale="96" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.53"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
@@ -1989,56 +2237,56 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <f aca="false">A3+1</f>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <f aca="false">A4+1</f>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <f aca="false">A5+1</f>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>A5+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <f aca="false">A6+1</f>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>A6+1</f>
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <f aca="false">A7+1</f>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>A7+1</f>
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2046,44 +2294,36 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.53"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="100.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
@@ -2097,38 +2337,38 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <f aca="false">A3+1</f>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <f aca="false">A4+1</f>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <f aca="false">A5+1</f>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>A5+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2136,45 +2376,37 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="62" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" scale="62" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.53"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="100.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
@@ -2188,38 +2420,38 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <f aca="false">A3+1</f>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <f aca="false">A4+1</f>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <f aca="false">A5+1</f>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>A5+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2227,45 +2459,37 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="64" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" scale="64" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.53"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
@@ -2279,47 +2503,47 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>107</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <f aca="false">A3+1</f>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>109</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <f aca="false">A4+1</f>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>110</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <f aca="false">A5+1</f>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>A5+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>111</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -2330,45 +2554,37 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="94" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" scale="94" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="106"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.53"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="106" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="63" bestFit="1" customWidth="1"/>
+    <col min="5" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
@@ -2382,111 +2598,133 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <f aca="false">A3+1</f>
+      <c r="C3" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A9" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <f aca="false">A4+1</f>
+      <c r="C4" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <f aca="false">A5+1</f>
+      <c r="C5" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <f aca="false">A6+1</f>
+      <c r="C6" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <f aca="false">A7+1</f>
+      <c r="C7" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <f aca="false">A8+1</f>
+      <c r="C8" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>119</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="64" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" scale="64" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.53"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="76" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
@@ -2500,56 +2738,56 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <f aca="false">A3+1</f>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <f aca="false">A4+1</f>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <f aca="false">A5+1</f>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>A5+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <f aca="false">A6+1</f>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>A6+1</f>
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <f aca="false">A7+1</f>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>A7+1</f>
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2557,12 +2795,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="80" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" scale="80" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Etapa 2/Checklist Gerência de Requisitos.xlsx
+++ b/Etapa 2/Checklist Gerência de Requisitos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Indice!$A$1:$D$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Processo!$A$1:$D$70</definedName>
   </definedNames>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="134">
   <si>
     <t>Controle de Qualidade</t>
   </si>
@@ -600,7 +600,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -634,6 +634,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -735,14 +741,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -756,6 +756,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1132,84 +1139,84 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" customWidth="1"/>
-    <col min="4" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" customWidth="1"/>
+    <col min="4" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="10" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="10" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="10" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="10" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="10" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="C14" s="12" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1236,53 +1243,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B7" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="120.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="120.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>2</v>
@@ -1290,11 +1300,14 @@
       <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1302,11 +1315,14 @@
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1314,12 +1330,12 @@
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1327,12 +1343,12 @@
       <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1340,12 +1356,12 @@
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1353,12 +1369,12 @@
       <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1366,11 +1382,14 @@
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1378,11 +1397,14 @@
       <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1390,11 +1412,14 @@
       <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1402,11 +1427,14 @@
       <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1414,23 +1442,23 @@
       <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1438,11 +1466,11 @@
       <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1450,11 +1478,11 @@
       <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1462,11 +1490,11 @@
       <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1474,11 +1502,11 @@
       <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1486,11 +1514,11 @@
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1498,11 +1526,11 @@
       <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1510,11 +1538,11 @@
       <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1522,11 +1550,11 @@
       <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1534,11 +1562,11 @@
       <c r="B24" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1546,11 +1574,11 @@
       <c r="B25" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1558,11 +1586,11 @@
       <c r="B26" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1570,11 +1598,11 @@
       <c r="B27" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1582,11 +1610,11 @@
       <c r="B28" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1594,11 +1622,11 @@
       <c r="B29" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1606,11 +1634,11 @@
       <c r="B30" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1618,11 +1646,11 @@
       <c r="B31" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1630,11 +1658,11 @@
       <c r="B32" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1642,11 +1670,11 @@
       <c r="B33" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1654,11 +1682,11 @@
       <c r="B34" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1666,11 +1694,11 @@
       <c r="B35" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" ref="A36:A70" si="1">A35+1</f>
         <v>34</v>
@@ -1678,11 +1706,11 @@
       <c r="B36" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1690,11 +1718,11 @@
       <c r="B37" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1702,11 +1730,11 @@
       <c r="B38" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1714,11 +1742,11 @@
       <c r="B39" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1726,11 +1754,11 @@
       <c r="B40" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -1738,11 +1766,11 @@
       <c r="B41" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -1750,11 +1778,11 @@
       <c r="B42" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -1762,11 +1790,11 @@
       <c r="B43" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1774,11 +1802,11 @@
       <c r="B44" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -1786,11 +1814,11 @@
       <c r="B45" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -1798,11 +1826,11 @@
       <c r="B46" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -1810,11 +1838,11 @@
       <c r="B47" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -1822,11 +1850,11 @@
       <c r="B48" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -1834,11 +1862,11 @@
       <c r="B49" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -1846,11 +1874,11 @@
       <c r="B50" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -1858,11 +1886,11 @@
       <c r="B51" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -1870,11 +1898,11 @@
       <c r="B52" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -1882,11 +1910,11 @@
       <c r="B53" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -1894,11 +1922,11 @@
       <c r="B54" t="s">
         <v>71</v>
       </c>
-      <c r="C54" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -1906,11 +1934,11 @@
       <c r="B55" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -1918,11 +1946,11 @@
       <c r="B56" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -1930,11 +1958,11 @@
       <c r="B57" t="s">
         <v>74</v>
       </c>
-      <c r="C57" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -1942,11 +1970,11 @@
       <c r="B58" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -1954,11 +1982,11 @@
       <c r="B59" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -1966,11 +1994,11 @@
       <c r="B60" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -1978,11 +2006,11 @@
       <c r="B61" t="s">
         <v>78</v>
       </c>
-      <c r="C61" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -1990,11 +2018,11 @@
       <c r="B62" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -2002,11 +2030,11 @@
       <c r="B63" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -2014,11 +2042,11 @@
       <c r="B64" t="s">
         <v>81</v>
       </c>
-      <c r="C64" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -2026,11 +2054,11 @@
       <c r="B65" t="s">
         <v>82</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -2038,11 +2066,11 @@
       <c r="B66" t="s">
         <v>83</v>
       </c>
-      <c r="C66" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -2050,11 +2078,11 @@
       <c r="B67" t="s">
         <v>84</v>
       </c>
-      <c r="C67" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -2062,11 +2090,11 @@
       <c r="B68" t="s">
         <v>85</v>
       </c>
-      <c r="C68" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -2074,11 +2102,11 @@
       <c r="B69" t="s">
         <v>86</v>
       </c>
-      <c r="C69" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -2086,7 +2114,7 @@
       <c r="B70" t="s">
         <v>87</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2095,7 +2123,10 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="58" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="4" max="69" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
@@ -2107,52 +2138,52 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="129.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="64.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="129.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>127</v>
       </c>
       <c r="D3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -2160,11 +2191,11 @@
       <c r="B4" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>A4+1</f>
         <v>3</v>
@@ -2172,11 +2203,11 @@
       <c r="B5" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>A5+1</f>
         <v>4</v>
@@ -2184,11 +2215,11 @@
       <c r="B6" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
@@ -2206,38 +2237,38 @@
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" customWidth="1"/>
+    <col min="5" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2245,7 +2276,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -2254,7 +2285,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>A4+1</f>
         <v>3</v>
@@ -2263,7 +2294,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>A5+1</f>
         <v>4</v>
@@ -2272,7 +2303,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>A6+1</f>
         <v>5</v>
@@ -2281,7 +2312,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>A7+1</f>
         <v>6</v>
@@ -2307,37 +2338,37 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="100.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="100.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2345,7 +2376,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -2354,7 +2385,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>A4+1</f>
         <v>3</v>
@@ -2363,7 +2394,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>A5+1</f>
         <v>4</v>
@@ -2389,38 +2420,38 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="100.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="100.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" customWidth="1"/>
+    <col min="5" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2428,7 +2459,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -2437,7 +2468,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>A4+1</f>
         <v>3</v>
@@ -2446,7 +2477,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>A5+1</f>
         <v>4</v>
@@ -2472,49 +2503,49 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="59.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="59.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" customWidth="1"/>
+    <col min="5" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -2522,11 +2553,11 @@
       <c r="B4" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>A4+1</f>
         <v>3</v>
@@ -2534,11 +2565,11 @@
       <c r="B5" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>A5+1</f>
         <v>4</v>
@@ -2546,7 +2577,7 @@
       <c r="B6" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2563,53 +2594,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
     <col min="2" max="2" width="106" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="63" bestFit="1" customWidth="1"/>
-    <col min="5" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="5" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A9" si="0">A3+1</f>
         <v>2</v>
@@ -2617,11 +2648,11 @@
       <c r="B4" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2629,11 +2660,11 @@
       <c r="B5" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2641,11 +2672,11 @@
       <c r="B6" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2653,14 +2684,14 @@
       <c r="B7" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>130</v>
       </c>
       <c r="D7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2668,14 +2699,14 @@
       <c r="B8" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>130</v>
       </c>
       <c r="D8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2683,7 +2714,7 @@
       <c r="B9" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>130</v>
       </c>
       <c r="D9" t="s">
@@ -2703,42 +2734,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
     <col min="2" max="2" width="76" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" customWidth="1"/>
+    <col min="5" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2746,7 +2777,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -2755,7 +2786,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>A4+1</f>
         <v>3</v>
@@ -2764,7 +2795,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>A5+1</f>
         <v>4</v>
@@ -2773,7 +2804,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>A6+1</f>
         <v>5</v>
@@ -2782,7 +2813,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>A7+1</f>
         <v>6</v>

--- a/Etapa 2/Checklist Gerência de Requisitos.xlsx
+++ b/Etapa 2/Checklist Gerência de Requisitos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="8"/>
+    <workbookView windowWidth="20490" windowHeight="7185" tabRatio="500" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -22,17 +22,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Indice!$A$1:$D$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Processo!$A$1:$D$70</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="137">
   <si>
     <t>Controle de Qualidade</t>
   </si>
@@ -75,7 +70,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>Checklist:</t>
@@ -86,7 +80,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Gerência de Requisitos</t>
@@ -106,6 +99,9 @@
   </si>
   <si>
     <t>O processo de gerência de requisitos (PGR) atende as políticas da organização?</t>
+  </si>
+  <si>
+    <t>Há não conformidade</t>
   </si>
   <si>
     <t xml:space="preserve">Não há dados suficientes para aferir </t>
@@ -323,7 +319,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>Checklist:</t>
@@ -334,7 +329,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Checklist Consistência de Requisitos</t>
@@ -344,7 +338,16 @@
     <t>Os IDs dos requisitos com inconformidade estão preenchidos?</t>
   </si>
   <si>
+    <t>Apresenta não conformidade</t>
+  </si>
+  <si>
+    <t>Na coluna "Inconformidades Encontradas" onde deveria conter o ID do requisito, contém outras informações, em alguns casos</t>
+  </si>
+  <si>
     <t>Possui observação sobre os requisitos com inconformidade?</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>Possui comentários adicionais?</t>
@@ -358,7 +361,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>Checklist:</t>
@@ -369,7 +371,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Documento de Aprovação dos Requisitos</t>
@@ -377,6 +378,9 @@
   </si>
   <si>
     <t>Há um documento de Aprovação de Requisitos?</t>
+  </si>
+  <si>
+    <t>Na documentação do projeto, não um documento que represente este item</t>
   </si>
   <si>
     <t>Há um anexo do documento a ser aprovado?</t>
@@ -399,7 +403,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>Checklist:</t>
@@ -410,7 +413,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Documento de Compromentimento da Equipe</t>
@@ -434,7 +436,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>Checklist:</t>
@@ -445,7 +446,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Especificação de Caso de Uso</t>
@@ -457,7 +457,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>Checklist:</t>
@@ -468,7 +467,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Especificação de Requisitos</t>
@@ -495,7 +493,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>Checklist:</t>
@@ -506,7 +503,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Matriz de Rastreabilidade de Requisito</t>
@@ -528,10 +524,19 @@
     <t>Na matriz de rastreabilidade vertical, há o identificador do caso de uso correspondente ao requisito?</t>
   </si>
   <si>
+    <t>Não há identificador do caso de uso correspondente ao requisito</t>
+  </si>
+  <si>
     <t>Na matriz de rastreabilidade vertical, há o identificador do modulo de código correspondente ao requisito?</t>
   </si>
   <si>
+    <t>Não há referência ao módulo de código correspondente ao requisito</t>
+  </si>
+  <si>
     <t>Na matriz de rastreabilidade vertical, há o identificador do caso de teste correspondente ao requisito?</t>
+  </si>
+  <si>
+    <t>Não há referência ao caso de teste correspondente</t>
   </si>
   <si>
     <r>
@@ -539,7 +544,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>Checklist:</t>
@@ -550,7 +554,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Relatório de Impacto de Mudanças</t>
@@ -563,7 +566,10 @@
     <t>Os requisitos alterados, adicionados e excluídos são identificados?</t>
   </si>
   <si>
-    <t>O relatório resgistra o estatus dos requisitos alterados?</t>
+    <t>O documento que representa este item, informa que não houve mudança, portanto não foram registradas.</t>
+  </si>
+  <si>
+    <t>O relatório resgistra o status dos requisitos alterados?</t>
   </si>
   <si>
     <t>Os requisitos impactados são identificados?</t>
@@ -572,48 +578,54 @@
     <t>No caso de novos requisitos há especificação desses requisitos?</t>
   </si>
   <si>
+    <t>O documento que representa este item, não informa se houve ou não a adição de novos requisitos.</t>
+  </si>
+  <si>
     <t>No caso de requisitos alterados há especificação das alterações realizadas?</t>
-  </si>
-  <si>
-    <t>Apresenta não conformidade</t>
-  </si>
-  <si>
-    <t>Na coluna "Inconformidades Encontradas" onde deveria conter o ID do requisito, contém outras informações, em alguns casos</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>Há não conformidade</t>
-  </si>
-  <si>
-    <t>Não há identificador do caso de uso correspondente ao requisito</t>
-  </si>
-  <si>
-    <t>Não há referência ao módulo de código correspondente ao requisito</t>
-  </si>
-  <si>
-    <t>Não há referência ao caso de teste correspondente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -621,32 +633,153 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -665,8 +798,194 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -736,98 +1055,383 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="48" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFF2F2F2"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
       <rgbColor rgb="00003366"/>
       <rgbColor rgb="00339966"/>
       <rgbColor rgb="00003300"/>
@@ -1127,96 +1731,97 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:C14"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.55833333333333" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="39.109375" customWidth="1"/>
-    <col min="4" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="39.1083333333333" customWidth="1"/>
+    <col min="4" max="1025" width="8.55833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B1" s="14" t="s">
+    <row r="1" ht="22.5" spans="2:3">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+    <row r="3" spans="2:2">
+      <c r="B3" s="8"/>
+    </row>
+    <row r="5" ht="15"/>
+    <row r="6" spans="2:3">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+    <row r="7" spans="2:3">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="8" t="s">
+    <row r="9" spans="2:3">
+      <c r="B9" s="11"/>
+      <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="8" t="s">
+    <row r="10" spans="2:3">
+      <c r="B10" s="11"/>
+      <c r="C10" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="8" t="s">
+    <row r="11" spans="2:3">
+      <c r="B11" s="11"/>
+      <c r="C11" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="8" t="s">
+    <row r="12" spans="2:3">
+      <c r="B12" s="11"/>
+      <c r="C12" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="8" t="s">
+    <row r="13" spans="2:3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
-      <c r="C14" s="10" t="s">
+    <row r="14" ht="15" spans="2:3">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1234,896 +1839,899 @@
     <hyperlink ref="C13" location="MRR!A1" display="Matriz de Rastreabilidade de Requisitos"/>
     <hyperlink ref="C14" location="RIM!A1" display="Relatório de Impacto de Mudanças"/>
   </hyperlinks>
-  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="91" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="91" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="120.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.55833333333333" customWidth="1"/>
+    <col min="2" max="2" width="120.666666666667" customWidth="1"/>
+    <col min="3" max="3" width="22.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="1025" width="8.55833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>130</v>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>130</v>
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>130</v>
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>130</v>
+        <v>29</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>130</v>
+        <v>30</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>130</v>
+        <v>31</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
         <f t="shared" ref="A36:A70" si="1">A35+1</f>
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>23</v>
+        <v>88</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="50" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="50" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="4" max="69" man="1"/>
   </colBreaks>
@@ -2131,193 +2739,232 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="64.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="129.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.55833333333333" customWidth="1"/>
+    <col min="2" max="2" width="64.5583333333333" customWidth="1"/>
+    <col min="3" max="3" width="30.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="129.108333333333" customWidth="1"/>
+    <col min="5" max="1025" width="8.55833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>127</v>
+        <v>90</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <f>A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <f>A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>96</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="96" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="96" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="48.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" customWidth="1"/>
-    <col min="5" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.55833333333333" customWidth="1"/>
+    <col min="2" max="2" width="48.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="67.5" customWidth="1"/>
+    <col min="5" max="1025" width="8.55833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <f>A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <f>A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <f>A6+1</f>
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <f>A7+1</f>
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2325,508 +2972,558 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="45" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="2" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="100.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.55833333333333" customWidth="1"/>
+    <col min="2" max="2" width="100.441666666667" customWidth="1"/>
+    <col min="3" max="3" width="22.3333333333333" customWidth="1"/>
+    <col min="4" max="1025" width="8.55833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <f>A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <f>A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="62" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="62" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="100.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" customWidth="1"/>
-    <col min="5" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.55833333333333" customWidth="1"/>
+    <col min="2" max="2" width="100.441666666667" customWidth="1"/>
+    <col min="3" max="3" width="22.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="6.88333333333333" customWidth="1"/>
+    <col min="5" max="1025" width="8.55833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <f>A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <f>A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="64" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="64" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="59.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" customWidth="1"/>
-    <col min="5" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.55833333333333" customWidth="1"/>
+    <col min="2" max="2" width="59.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="22.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="6.88333333333333" customWidth="1"/>
+    <col min="5" max="1025" width="8.55833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <f>A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <f>A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>108</v>
+        <v>116</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="94" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="94" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.55833333333333" customWidth="1"/>
     <col min="2" max="2" width="106" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="63" bestFit="1" customWidth="1"/>
-    <col min="5" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="63" customWidth="1"/>
+    <col min="5" max="1025" width="8.55833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <f t="shared" ref="A4:A9" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>130</v>
+        <v>122</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>130</v>
+        <v>124</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>130</v>
+        <v>126</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="64" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="64" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.55833333333333" customWidth="1"/>
     <col min="2" max="2" width="76" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" customWidth="1"/>
-    <col min="5" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="95.25" customWidth="1"/>
+    <col min="5" max="1025" width="8.55833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <f>A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <f>A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <f>A6+1</f>
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <f>A7+1</f>
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>136</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="80" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="39" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="2" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>